--- a/MESWebApi/Template/技术通知.xlsx
+++ b/MESWebApi/Template/技术通知.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>技术名称</t>
   </si>
@@ -29,17 +29,13 @@
   </si>
   <si>
     <t>生产线</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>JT-0000251495-电子签名</t>
   </si>
   <si>
     <t>关于装配TC400R 试验用发动机的技术通知</t>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -49,20 +45,13 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\-m\-d\ h:mm:ss"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
@@ -86,10 +75,16 @@
     </font>
     <font>
       <sz val="10"/>
-      <color indexed="64"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -133,25 +128,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -458,56 +452,56 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="17" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="20.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="32.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.5" style="7" customWidth="1"/>
+    <col min="2" max="2" width="32.125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="19.625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="19.375" style="7" customWidth="1"/>
     <col min="5" max="5" width="6.375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="17" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="7" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" s="3" customFormat="1" ht="22.5" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="6">
         <v>44348</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="6">
         <v>44357</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>7</v>
+      <c r="E2" s="8">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
